--- a/cd/doc/formaty_plikow_xls_do_importu_danych/grupy.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/grupy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Skrót</t>
   </si>
@@ -27,18 +27,6 @@
     <t>Liczba studentów</t>
   </si>
   <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -49,13 +37,46 @@
   </si>
   <si>
     <t>STATIONARY</t>
+  </si>
+  <si>
+    <t>Dodatkowy opis</t>
+  </si>
+  <si>
+    <t>Słowa kluczowe</t>
+  </si>
+  <si>
+    <t>#xyz #abc</t>
+  </si>
+  <si>
+    <t>#Kierunek xyz #dziekańska</t>
+  </si>
+  <si>
+    <t>#ćwieczeniowa</t>
+  </si>
+  <si>
+    <t>PNS_D1_C1</t>
+  </si>
+  <si>
+    <t>PNS_D1_C2</t>
+  </si>
+  <si>
+    <t>PNS_D2_C3</t>
+  </si>
+  <si>
+    <t>PNS_D2_C4</t>
+  </si>
+  <si>
+    <t>Program wstawia lub aktualizuje rekordy, w zależności od tego, czy rekord o podanym skrócie istnieje.</t>
+  </si>
+  <si>
+    <t>Pamiętaj, by raz użytego skrótu nie zmieniać, ponieważ spowoduje to zdublowanie danych.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -72,8 +93,16 @@
       <name val="Arial CE"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +112,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -96,16 +136,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Dobre" xfId="1" builtinId="26"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,20 +449,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H2" sqref="H2:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -428,63 +476,102 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C3">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/cd/doc/formaty_plikow_xls_do_importu_danych/grupy.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/grupy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Skrót</t>
   </si>
@@ -70,13 +70,19 @@
   </si>
   <si>
     <t>Pamiętaj, by raz użytego skrótu nie zmieniać, ponieważ spowoduje to zdublowanie danych.</t>
+  </si>
+  <si>
+    <t>Integration Id</t>
+  </si>
+  <si>
+    <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -101,8 +107,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +138,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -140,13 +158,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dobre" xfId="1" builtinId="26"/>
@@ -449,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:Q3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -462,10 +481,12 @@
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -484,8 +505,11 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -498,10 +522,9 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -510,8 +533,9 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -530,10 +554,9 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -542,8 +565,9 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -560,7 +584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -573,6 +597,18 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/cd/doc/formaty_plikow_xls_do_importu_danych/grupy.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/grupy.xlsx
@@ -75,7 +75,7 @@
     <t>Integration Id</t>
   </si>
   <si>
-    <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego.</t>
+    <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego. Jeżeli nie wiesz co wpisać, pozostaw to pole puste.</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/cd/doc/formaty_plikow_xls_do_importu_danych/grupy.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/grupy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Skrót</t>
   </si>
@@ -27,18 +27,9 @@
     <t>Liczba studentów</t>
   </si>
   <si>
-    <t>OTHER</t>
-  </si>
-  <si>
     <t>Typ grupy(stacjonarne/niestacjonarne/inne)</t>
   </si>
   <si>
-    <t>EXTRAMURAL</t>
-  </si>
-  <si>
-    <t>STATIONARY</t>
-  </si>
-  <si>
     <t>Dodatkowy opis</t>
   </si>
   <si>
@@ -76,6 +67,21 @@
   </si>
   <si>
     <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego. Jeżeli nie wiesz co wpisać, pozostaw to pole puste.</t>
+  </si>
+  <si>
+    <t>stacjonarne</t>
+  </si>
+  <si>
+    <t>niestacjonarne</t>
+  </si>
+  <si>
+    <t>inne</t>
+  </si>
+  <si>
+    <t>Jednostka organizacyjna</t>
+  </si>
+  <si>
+    <t>W polu Jednostka organizacyjna wpisz nazwę Uczelni lub nazwę Wydziału lub nazwę instytutu. Pole może pozostać puste.</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -483,7 +489,7 @@
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -497,33 +503,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -537,25 +546,25 @@
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -569,36 +578,36 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -609,6 +618,11 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="I6" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
